--- a/Testing over raw commands/test_report.xlsx
+++ b/Testing over raw commands/test_report.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Testing" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="metadata" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Testing" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +426,105 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>SCSI Version</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Device</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Removable</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Serial</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Blocks</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Block Size</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capacity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SanDisk 3.2Gen</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0401055750696116c022</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>240328704</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>512 bytes</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>114.60GB</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -478,32 +578,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>27.94 MB/s</t>
+          <t>28.19 MB/s</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>73.30 seconds</t>
+          <t>72.64 seconds</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>353.90 milliseconds</t>
+          <t>350.92 milliseconds</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>133.235402 MB/s</t>
+          <t>138.720735 MB/s</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>15.37 seconds</t>
+          <t>14.76 seconds</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>73.93 milliseconds</t>
+          <t>71.11 milliseconds</t>
         </is>
       </c>
     </row>
